--- a/resonance_testing/data/natural_frequency_resonance_ratio.xlsx
+++ b/resonance_testing/data/natural_frequency_resonance_ratio.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Node\Documents\GitHub\jdlongenecker\documentation\resonance_testing\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{887ED4BB-7AC5-4880-B3CC-DFC449730CD7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B70F806C-113D-4895-B19D-762C3A5F9A6C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2850" yWindow="345" windowWidth="21600" windowHeight="11385" xr2:uid="{1568EE4F-518D-4CBB-9BC3-318BBBA75918}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1568EE4F-518D-4CBB-9BC3-318BBBA75918}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -657,8 +657,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{702C349F-0633-434E-BA14-3833C6F99D3C}">
   <dimension ref="A1:N49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -788,8 +788,8 @@
         <v>190</v>
       </c>
       <c r="E6">
-        <f>380*B6</f>
-        <v>190</v>
+        <f>420*B6</f>
+        <v>210</v>
       </c>
       <c r="G6" t="s">
         <v>14</v>
@@ -994,7 +994,7 @@
       </c>
       <c r="E13">
         <f>SUM(E6:E11)</f>
-        <v>846</v>
+        <v>866</v>
       </c>
       <c r="J13" s="2">
         <f>J12*100</f>
@@ -1018,7 +1018,7 @@
       </c>
       <c r="E15" s="4">
         <f>SQRT(E12/(E12+E13))</f>
-        <v>0.61024876962666674</v>
+        <v>0.60577146212700161</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
